--- a/ИвановИИ_2025-01-09.xlsx
+++ b/ИвановИИ_2025-01-09.xlsx
@@ -3115,9 +3115,17 @@
         </is>
       </c>
       <c r="AX30" s="32" t="n"/>
-      <c r="AY30" s="98" t="n"/>
+      <c r="AY30" s="98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AZ30" s="104" t="n"/>
-      <c r="BA30" s="98" t="n"/>
+      <c r="BA30" s="98" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="BB30" s="104" t="n"/>
       <c r="BC30" s="108" t="inlineStr">
         <is>
@@ -3125,9 +3133,17 @@
         </is>
       </c>
       <c r="BD30" s="97" t="n"/>
-      <c r="BE30" s="98" t="n"/>
+      <c r="BE30" s="98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="BF30" s="104" t="n"/>
-      <c r="BG30" s="98" t="n"/>
+      <c r="BG30" s="98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BH30" s="104" t="n"/>
       <c r="BI30" s="108" t="inlineStr">
         <is>
@@ -3135,13 +3151,29 @@
         </is>
       </c>
       <c r="BJ30" s="97" t="n"/>
-      <c r="BK30" s="98" t="n"/>
+      <c r="BK30" s="98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="BL30" s="104" t="n"/>
-      <c r="BM30" s="98" t="n"/>
+      <c r="BM30" s="98" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="BN30" s="104" t="n"/>
-      <c r="BO30" s="98" t="n"/>
+      <c r="BO30" s="98" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="BP30" s="104" t="n"/>
-      <c r="BQ30" s="98" t="n"/>
+      <c r="BQ30" s="98" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="BR30" s="104" t="n"/>
       <c r="BV30" s="39" t="n"/>
       <c r="BW30" s="39" t="n"/>
@@ -3525,7 +3557,7 @@
       <c r="P35" s="104" t="n"/>
       <c r="Q35" s="98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R35" s="104" t="n"/>
@@ -3537,13 +3569,13 @@
       <c r="T35" s="97" t="n"/>
       <c r="U35" s="98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V35" s="104" t="n"/>
       <c r="W35" s="98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X35" s="104" t="n"/>
@@ -3555,25 +3587,25 @@
       <c r="Z35" s="97" t="n"/>
       <c r="AA35" s="98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AB35" s="104" t="n"/>
       <c r="AC35" s="98" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD35" s="104" t="n"/>
       <c r="AE35" s="98" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF35" s="104" t="n"/>
       <c r="AG35" s="98" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AH35" s="104" t="n"/>
